--- a/BackTest/2019-10-26 BackTest PAY.xlsx
+++ b/BackTest/2019-10-26 BackTest PAY.xlsx
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -12316,13 +12316,17 @@
         <v>80.58000000000001</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="K341" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
@@ -12357,8 +12361,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12386,14 +12396,22 @@
         <v>80.22000000000001</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>80</v>
+      </c>
+      <c r="K343" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12421,14 +12439,22 @@
         <v>80.06000000000002</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="K344" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12456,14 +12482,22 @@
         <v>79.84</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="K345" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12491,14 +12525,22 @@
         <v>79.74000000000001</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="K346" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12526,14 +12568,22 @@
         <v>79.74000000000001</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>80</v>
+      </c>
+      <c r="K347" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12561,14 +12611,22 @@
         <v>79.80000000000001</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>80</v>
+      </c>
+      <c r="K348" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12596,14 +12654,22 @@
         <v>79.86000000000001</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="K349" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12631,14 +12697,22 @@
         <v>79.88000000000001</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>80</v>
+      </c>
+      <c r="K350" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12666,14 +12740,22 @@
         <v>79.88000000000001</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="K351" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12701,14 +12783,22 @@
         <v>79.88000000000001</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>80</v>
+      </c>
+      <c r="K352" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12736,14 +12826,22 @@
         <v>79.86000000000001</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>80</v>
+      </c>
+      <c r="K353" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12771,14 +12869,22 @@
         <v>79.94000000000001</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="K354" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12812,8 +12918,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -12847,8 +12959,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -12882,8 +13000,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -12917,8 +13041,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -12952,8 +13082,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -12987,8 +13123,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13022,8 +13164,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13057,8 +13205,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13092,8 +13246,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13121,18 +13281,18 @@
         <v>77.17999999999999</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M364" t="n">
@@ -13168,7 +13328,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13207,7 +13369,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13240,15 +13404,15 @@
         <v>78.85999999999999</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13287,7 +13451,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13326,7 +13492,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13359,15 +13527,15 @@
         <v>78.21999999999998</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>78</v>
-      </c>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13400,15 +13568,15 @@
         <v>77.89999999999998</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13441,15 +13609,15 @@
         <v>77.53999999999999</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>77</v>
-      </c>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13482,15 +13650,15 @@
         <v>77.31999999999998</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13523,15 +13691,15 @@
         <v>77.21999999999998</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13564,15 +13732,15 @@
         <v>77.13999999999999</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest PAY.xlsx
+++ b/BackTest/2019-10-26 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>45658.03685989147</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>45658.03685989147</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>45658.03685989147</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>43058.48155989147</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>43058.48155989147</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>36449.66625989147</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3550.33374010853</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3540.15374010853</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-133031.8982401085</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-133031.8982401085</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-140310.2692401086</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-140300.1492401086</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-155411.6356401086</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-155401.5356401085</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-160031.7656401086</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-131101.7062401086</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-131101.7062401086</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-126903.7062401086</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-130382.4383401086</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-130382.4383401086</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-130864.5104401086</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-150653.6333401086</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-146065.3980401086</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-188505.5024401086</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-188505.5024401086</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-234274.3194401086</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-234274.3194401086</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-233864.2094401086</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-233864.2094401086</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-370968.3401401086</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-428070.3417401086</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-424760.3417401086</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-423934.3417401086</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-426434.3417401086</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-433423.6107401085</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-429882.6107401085</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-429896.1348401085</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4048,14 +4048,10 @@
         <v>-433279.3028401085</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J111" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4085,19 +4081,11 @@
         <v>-432879.3028401085</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>80.59999999999999</v>
-      </c>
-      <c r="J112" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4126,19 +4114,11 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J113" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4167,19 +4147,11 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J114" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4208,17 +4180,11 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4247,19 +4213,11 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J116" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4288,19 +4246,11 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J117" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4329,17 +4279,11 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4368,17 +4312,11 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4407,19 +4345,11 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J120" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4448,19 +4378,11 @@
         <v>-430117.3028401085</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="J121" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4489,19 +4411,11 @@
         <v>-430117.3028401085</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="J122" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4530,19 +4444,11 @@
         <v>-430117.3028401085</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="J123" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4571,17 +4477,11 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4610,17 +4510,11 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4649,17 +4543,11 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4688,17 +4576,11 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4727,17 +4609,11 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4766,19 +4642,11 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>82</v>
-      </c>
-      <c r="J129" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4807,19 +4675,11 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>82</v>
-      </c>
-      <c r="J130" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4848,17 +4708,11 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4887,17 +4741,11 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4926,17 +4774,11 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4965,19 +4807,11 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>82</v>
-      </c>
-      <c r="J134" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5006,17 +4840,11 @@
         <v>-432861.8052401085</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5045,17 +4873,11 @@
         <v>-433912.9545401085</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5087,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5126,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5162,19 +4972,13 @@
         <v>-433846.0585401085</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>1.012326732673267</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
@@ -5201,7 +5005,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5234,7 +5038,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5267,7 +5071,7 @@
         <v>-427301.7453401085</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5300,7 +5104,7 @@
         <v>-428901.7453401085</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5564,7 +5368,7 @@
         <v>-405477.0641401085</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5597,7 +5401,7 @@
         <v>-410539.0641401085</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5663,7 +5467,7 @@
         <v>-404288.2997401085</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6092,7 +5896,7 @@
         <v>-398333.7542401085</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6125,7 +5929,7 @@
         <v>-414402.3291401085</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6158,7 +5962,7 @@
         <v>-414402.3291401085</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6191,7 +5995,7 @@
         <v>-409402.3291401085</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6224,7 +6028,7 @@
         <v>-409402.3291401085</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6257,7 +6061,7 @@
         <v>-409402.3291401085</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6290,7 +6094,7 @@
         <v>-409402.3291401085</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6323,7 +6127,7 @@
         <v>-409402.3291401085</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6356,7 +6160,7 @@
         <v>-402566.1895401085</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6389,7 +6193,7 @@
         <v>-402566.1895401085</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6422,7 +6226,7 @@
         <v>-402566.1895401085</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6455,7 +6259,7 @@
         <v>-403216.1895401085</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6488,7 +6292,7 @@
         <v>-403216.1895401085</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6521,7 +6325,7 @@
         <v>-403216.1895401085</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6554,7 +6358,7 @@
         <v>-398135.1895401085</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6587,7 +6391,7 @@
         <v>-398135.1895401085</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6620,7 +6424,7 @@
         <v>-398135.1895401085</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6719,7 +6523,7 @@
         <v>-392722.1895401085</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6752,7 +6556,7 @@
         <v>-392722.1895401085</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6785,7 +6589,7 @@
         <v>-392722.1895401085</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6818,7 +6622,7 @@
         <v>-392722.1895401085</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6851,7 +6655,7 @@
         <v>-375894.1895401085</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6884,7 +6688,7 @@
         <v>-372748.3077401086</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6917,7 +6721,7 @@
         <v>-372748.3077401086</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6950,7 +6754,7 @@
         <v>-372748.3077401086</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6983,7 +6787,7 @@
         <v>-372748.3077401086</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7016,7 +6820,7 @@
         <v>-375436.4685401086</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7049,7 +6853,7 @@
         <v>-375436.4685401086</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7082,7 +6886,7 @@
         <v>-375613.983333008</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7115,7 +6919,7 @@
         <v>-375613.983333008</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7148,7 +6952,7 @@
         <v>-375613.983333008</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7181,7 +6985,7 @@
         <v>-375613.983333008</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7214,7 +7018,7 @@
         <v>-375613.983333008</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7247,7 +7051,7 @@
         <v>-375305.983333008</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7280,7 +7084,7 @@
         <v>-378362.983333008</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7313,7 +7117,7 @@
         <v>-383562.983333008</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7379,7 +7183,7 @@
         <v>-383552.983333008</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7412,7 +7216,7 @@
         <v>-383552.983333008</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7445,7 +7249,7 @@
         <v>-383552.983333008</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7478,7 +7282,7 @@
         <v>-344664.970433008</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7511,7 +7315,7 @@
         <v>-325551.908933008</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7544,7 +7348,7 @@
         <v>-324110.6692741845</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7577,7 +7381,7 @@
         <v>-313430.6692741845</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7610,7 +7414,7 @@
         <v>-313430.6692741845</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7643,7 +7447,7 @@
         <v>-313821.6692741845</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7676,7 +7480,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7709,7 +7513,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7742,7 +7546,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7775,7 +7579,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7808,7 +7612,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7841,7 +7645,7 @@
         <v>-313425.2640741845</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7874,7 +7678,7 @@
         <v>-312321.2997741845</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7907,7 +7711,7 @@
         <v>-312321.2997741845</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7940,7 +7744,7 @@
         <v>-314275.2344741845</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7973,7 +7777,7 @@
         <v>-314255.2344741845</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8006,7 +7810,7 @@
         <v>-314655.2344741845</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8039,7 +7843,7 @@
         <v>-314645.2344741845</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8072,7 +7876,7 @@
         <v>-315320.2084741844</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8105,7 +7909,7 @@
         <v>-315320.2084741844</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8138,7 +7942,7 @@
         <v>-315220.2084741844</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8171,7 +7975,7 @@
         <v>-316420.2084741844</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8204,7 +8008,7 @@
         <v>-316420.2084741844</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8567,7 +8371,7 @@
         <v>-344084.1833741845</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8666,7 +8470,7 @@
         <v>-325061.1833741845</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8732,7 +8536,7 @@
         <v>-325061.1833741845</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8831,7 +8635,7 @@
         <v>-326204.1833741845</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8864,7 +8668,7 @@
         <v>-325019.1833741845</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8897,7 +8701,7 @@
         <v>-318085.7461741845</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8930,7 +8734,7 @@
         <v>-318085.7461741845</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9062,7 +8866,7 @@
         <v>-324905.6388741845</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9095,7 +8899,7 @@
         <v>-324905.6388741845</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9128,7 +8932,7 @@
         <v>-324905.6388741845</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9161,7 +8965,7 @@
         <v>-324905.6388741845</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9194,7 +8998,7 @@
         <v>-319705.6388741845</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9227,7 +9031,7 @@
         <v>-319705.6388741845</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9260,7 +9064,7 @@
         <v>-319705.6388741845</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9293,7 +9097,7 @@
         <v>-318505.6388741845</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9326,7 +9130,7 @@
         <v>-318505.6388741845</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9359,7 +9163,7 @@
         <v>-318505.6388741845</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9392,7 +9196,7 @@
         <v>-318505.6388741845</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9425,7 +9229,7 @@
         <v>-321073.6388741845</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9458,7 +9262,7 @@
         <v>-321073.6388741845</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9491,7 +9295,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9524,7 +9328,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9557,7 +9361,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9590,7 +9394,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9623,7 +9427,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9656,7 +9460,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9689,7 +9493,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9722,7 +9526,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9755,7 +9559,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9788,7 +9592,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9821,7 +9625,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9854,7 +9658,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9887,7 +9691,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9920,7 +9724,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9953,7 +9757,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9986,7 +9790,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10019,7 +9823,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10052,7 +9856,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10085,7 +9889,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10118,7 +9922,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10151,7 +9955,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10184,7 +9988,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10217,7 +10021,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10250,7 +10054,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10283,7 +10087,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10316,7 +10120,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10349,7 +10153,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10382,7 +10186,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10415,7 +10219,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10448,7 +10252,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10481,7 +10285,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10514,7 +10318,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10547,7 +10351,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10580,7 +10384,7 @@
         <v>-293704.3230741845</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10613,7 +10417,7 @@
         <v>-329582.5254741845</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10646,7 +10450,7 @@
         <v>-201554.7278741845</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10679,7 +10483,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10712,7 +10516,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10745,7 +10549,7 @@
         <v>-292088.2656741845</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10778,7 +10582,7 @@
         <v>-292088.2656741845</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10811,7 +10615,7 @@
         <v>-269213.2656741845</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10844,7 +10648,7 @@
         <v>-269213.2656741845</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10877,7 +10681,7 @@
         <v>-342152.8279741845</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10910,7 +10714,7 @@
         <v>-340152.8279741845</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10943,7 +10747,7 @@
         <v>-361430.0233741845</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10976,7 +10780,7 @@
         <v>-359743.0233741845</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11009,7 +10813,7 @@
         <v>-394686.4062741845</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11042,7 +10846,7 @@
         <v>-375167.4062741845</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11075,7 +10879,7 @@
         <v>-376367.4062741845</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11108,7 +10912,7 @@
         <v>-398275.0489741845</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11141,7 +10945,7 @@
         <v>-398265.0489741845</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11174,7 +10978,7 @@
         <v>-398255.0489741845</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11207,7 +11011,7 @@
         <v>-398255.0489741845</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11240,7 +11044,7 @@
         <v>-400062.0489741845</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11273,7 +11077,7 @@
         <v>-401205.4187741845</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11306,7 +11110,7 @@
         <v>-385095.4187741845</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11339,7 +11143,7 @@
         <v>-385095.4187741845</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12461,7 +12265,7 @@
         <v>-356449.2918741845</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12494,7 +12298,7 @@
         <v>-356925.2684741845</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12527,7 +12331,7 @@
         <v>-356525.2684741845</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12593,7 +12397,7 @@
         <v>-373679.3791741845</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13418,7 +13222,7 @@
         <v>-507505.7982741845</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13451,7 +13255,7 @@
         <v>-507505.7982741845</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13484,7 +13288,7 @@
         <v>-507505.7982741845</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13517,7 +13321,7 @@
         <v>-507505.7982741845</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13550,7 +13354,7 @@
         <v>-517478.4382741845</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13583,7 +13387,7 @@
         <v>-518095.4639741845</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13616,7 +13420,7 @@
         <v>-518085.4639741845</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13649,7 +13453,7 @@
         <v>-519057.4639741845</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13682,7 +13486,7 @@
         <v>-519057.4639741845</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13715,7 +13519,7 @@
         <v>-519057.4639741845</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13748,7 +13552,7 @@
         <v>-519047.4639741845</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13781,7 +13585,7 @@
         <v>-532001.8737741845</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13814,7 +13618,7 @@
         <v>-553201.2900741845</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13847,7 +13651,7 @@
         <v>-587233.3763741845</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13880,7 +13684,7 @@
         <v>-586033.3763741845</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13913,7 +13717,7 @@
         <v>-579233.3763741845</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13946,7 +13750,7 @@
         <v>-578033.3763741845</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13979,7 +13783,7 @@
         <v>-578033.3763741845</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14012,7 +13816,7 @@
         <v>-599251.8406741845</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14045,7 +13849,7 @@
         <v>-595364.8406741845</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14078,7 +13882,7 @@
         <v>-595374.8406741845</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14111,7 +13915,7 @@
         <v>-587755.0656741845</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14144,7 +13948,7 @@
         <v>-587755.0656741845</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14177,7 +13981,7 @@
         <v>-675054.0582741845</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14210,7 +14014,7 @@
         <v>-576163.2860741845</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14243,14 +14047,10 @@
         <v>-576563.2860741845</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="J414" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
@@ -14280,579 +14080,503 @@
         <v>-576563.2860741845</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
         <v>79.8</v>
       </c>
-      <c r="J415" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K415" t="inlineStr">
+      <c r="C416" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="D416" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="E416" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="F416" t="n">
+        <v>800</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-575763.2860741845</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="C417" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="D417" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="E417" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="F417" t="n">
+        <v>417</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-575763.2860741845</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="C418" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="D418" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="E418" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="F418" t="n">
+        <v>162533.7318</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-738297.0178741845</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C419" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D419" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="E419" t="n">
+        <v>74</v>
+      </c>
+      <c r="F419" t="n">
+        <v>91437.88039999999</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-646859.1374741845</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C420" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D420" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E420" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F420" t="n">
+        <v>1267.8642</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-648127.0016741845</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="C421" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D421" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="E421" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="F421" t="n">
+        <v>39740.7041</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-608386.2975741845</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>79</v>
+      </c>
+      <c r="C422" t="n">
+        <v>79</v>
+      </c>
+      <c r="D422" t="n">
+        <v>79</v>
+      </c>
+      <c r="E422" t="n">
+        <v>79</v>
+      </c>
+      <c r="F422" t="n">
+        <v>10</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-608376.2975741845</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C423" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D423" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="E423" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F423" t="n">
+        <v>2328</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-610704.2975741845</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C424" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D424" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="E424" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F424" t="n">
+        <v>1086</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-609618.2975741845</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>79</v>
+      </c>
+      <c r="C425" t="n">
+        <v>79</v>
+      </c>
+      <c r="D425" t="n">
+        <v>79</v>
+      </c>
+      <c r="E425" t="n">
+        <v>79</v>
+      </c>
+      <c r="F425" t="n">
+        <v>1242.236</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-610860.5335741845</v>
+      </c>
+      <c r="H425" t="n">
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="J425" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="C426" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="D426" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="E426" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="F426" t="n">
+        <v>1701.517</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-609159.0165741845</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="K426" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="C416" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="D416" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="E416" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="F416" t="n">
-        <v>800</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-575763.2860741845</v>
-      </c>
-      <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="J416" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K416" t="inlineStr">
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C427" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D427" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E427" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F427" t="n">
+        <v>286</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-609445.0165741845</v>
+      </c>
+      <c r="H427" t="n">
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="J427" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C428" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D428" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E428" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F428" t="n">
+        <v>572</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-610017.0165741845</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J428" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>78</v>
+      </c>
+      <c r="C429" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D429" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="E429" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F429" t="n">
+        <v>2585.419</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-612602.4355741845</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J429" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K429" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="C417" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="D417" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="E417" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="F417" t="n">
-        <v>417</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-575763.2860741845</v>
-      </c>
-      <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J417" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="C418" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="D418" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="E418" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="F418" t="n">
-        <v>162533.7318</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-738297.0178741845</v>
-      </c>
-      <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="J418" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C419" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="D419" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="E419" t="n">
-        <v>74</v>
-      </c>
-      <c r="F419" t="n">
-        <v>91437.88039999999</v>
-      </c>
-      <c r="G419" t="n">
-        <v>-646859.1374741845</v>
-      </c>
-      <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="J419" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C420" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D420" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E420" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F420" t="n">
-        <v>1267.8642</v>
-      </c>
-      <c r="G420" t="n">
-        <v>-648127.0016741845</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="C421" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="D421" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="E421" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="F421" t="n">
-        <v>39740.7041</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-608386.2975741845</v>
-      </c>
-      <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>79</v>
-      </c>
-      <c r="C422" t="n">
-        <v>79</v>
-      </c>
-      <c r="D422" t="n">
-        <v>79</v>
-      </c>
-      <c r="E422" t="n">
-        <v>79</v>
-      </c>
-      <c r="F422" t="n">
-        <v>10</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-608376.2975741845</v>
-      </c>
-      <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="C423" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D423" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="E423" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F423" t="n">
-        <v>2328</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-610704.2975741845</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C424" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="D424" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="E424" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F424" t="n">
-        <v>1086</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-609618.2975741845</v>
-      </c>
-      <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>79</v>
-      </c>
-      <c r="C425" t="n">
-        <v>79</v>
-      </c>
-      <c r="D425" t="n">
-        <v>79</v>
-      </c>
-      <c r="E425" t="n">
-        <v>79</v>
-      </c>
-      <c r="F425" t="n">
-        <v>1242.236</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-610860.5335741845</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="C426" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="D426" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="E426" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="F426" t="n">
-        <v>1701.517</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-609159.0165741845</v>
-      </c>
-      <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="n">
-        <v>79</v>
-      </c>
-      <c r="J426" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C427" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="D427" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="E427" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="F427" t="n">
-        <v>286</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-609445.0165741845</v>
-      </c>
-      <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="J427" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="C428" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D428" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E428" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="F428" t="n">
-        <v>572</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-610017.0165741845</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>78</v>
-      </c>
-      <c r="C429" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D429" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="E429" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F429" t="n">
-        <v>2585.419</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-612602.4355741845</v>
-      </c>
-      <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="J429" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14881,11 +14605,13 @@
         <v>-618450.5343741846</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J430" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14920,11 +14646,13 @@
         <v>-618723.1836741846</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="J431" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14959,11 +14687,13 @@
         <v>-619228.1836741846</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>77.3</v>
+      </c>
       <c r="J432" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -14998,11 +14728,13 @@
         <v>-618853.1836741846</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J433" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15037,13 +14769,13 @@
         <v>-618853.1836741846</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="J434" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15078,13 +14810,13 @@
         <v>-619425.1836741846</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="J435" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15119,13 +14851,13 @@
         <v>-611671.6436741846</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>77</v>
       </c>
       <c r="J436" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15160,13 +14892,13 @@
         <v>-611671.6436741846</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="J437" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15201,13 +14933,13 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="J438" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15242,11 +14974,13 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J439" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15281,11 +15015,13 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J440" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15320,11 +15056,13 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J441" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15363,7 +15101,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15402,7 +15140,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15441,7 +15179,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>80.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15454,6 +15192,6 @@
       <c r="M444" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest PAY.xlsx
+++ b/BackTest/2019-10-26 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>45658.03685989147</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>45658.03685989147</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>45658.03685989147</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>43058.48155989147</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>36449.66625989147</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3550.33374010853</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3540.15374010853</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-140300.1492401086</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-155401.5356401085</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-160031.7656401086</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-126903.7062401086</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-130382.4383401086</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-130382.4383401086</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-130864.5104401086</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-170081.2097401085</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-188114.2854401086</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-187590.5024401086</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-188505.5024401086</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-234274.3194401086</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-234274.3194401086</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-233864.2094401086</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-233864.2094401086</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-429896.1348401085</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-429896.1348401085</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-432479.3028401085</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-430117.3028401085</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-432861.8052401085</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-433912.9545401085</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-433841.8585401085</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-433856.8585401085</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-433846.0585401085</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-427301.7453401085</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-428901.7453401085</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-424006.0641401085</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-424016.0641401085</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-423616.0641401085</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-417216.0641401085</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-417216.0641401085</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-412413.0641401085</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-412413.0641401085</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-405477.0641401085</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-410539.0641401085</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-407051.2997401085</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-312321.2997741845</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-314275.2344741845</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-314255.2344741845</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-314655.2344741845</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-314645.2344741845</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-315320.2084741844</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-315320.2084741844</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-315220.2084741844</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-316420.2084741844</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-316420.2084741844</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-344084.1833741845</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-325061.1833741845</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-325061.1833741845</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-326204.1833741845</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-325019.1833741845</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-318085.7461741845</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-318085.7461741845</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-324905.6388741845</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-324905.6388741845</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-324905.6388741845</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-324905.6388741845</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-319705.6388741845</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-319705.6388741845</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-319705.6388741845</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-318505.6388741845</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-318505.6388741845</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-318505.6388741845</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-318505.6388741845</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-321073.6388741845</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-321073.6388741845</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-293704.3230741845</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-329582.5254741845</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-201554.7278741845</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-292088.2656741845</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-292088.2656741845</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-269213.2656741845</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-269213.2656741845</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-342152.8279741845</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-340152.8279741845</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-361430.0233741845</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-359743.0233741845</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-394686.4062741845</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-375167.4062741845</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-376367.4062741845</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-398275.0489741845</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-398265.0489741845</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-398255.0489741845</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-398255.0489741845</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-400062.0489741845</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-401205.4187741845</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-385095.4187741845</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-385095.4187741845</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -14278,10 +14278,14 @@
         <v>-608386.2975741845</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="J421" t="n">
+        <v>75.8</v>
+      </c>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14311,11 +14315,19 @@
         <v>-608376.2975741845</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="J422" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14356,19 @@
         <v>-610704.2975741845</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>79</v>
+      </c>
+      <c r="J423" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14410,14 +14430,10 @@
         <v>-610860.5335741845</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="J425" t="n">
-        <v>79.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
@@ -14450,14 +14466,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14486,19 +14496,11 @@
         <v>-609445.0165741845</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="J427" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14527,14 +14529,10 @@
         <v>-610017.0165741845</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="J428" t="n">
-        <v>77.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
@@ -14564,306 +14562,252 @@
         <v>-612602.4355741845</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="J429" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K429" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C430" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D430" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E430" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="F430" t="n">
+        <v>5848.0988</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-618450.5343741846</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>77</v>
+      </c>
+      <c r="C431" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D431" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="E431" t="n">
+        <v>77</v>
+      </c>
+      <c r="F431" t="n">
+        <v>272.6493</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-618723.1836741846</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C432" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D432" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E432" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F432" t="n">
+        <v>505</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-619228.1836741846</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C433" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D433" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E433" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F433" t="n">
+        <v>375</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-618853.1836741846</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C434" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D434" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E434" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F434" t="n">
+        <v>400</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-618853.1836741846</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>77</v>
+      </c>
+      <c r="C435" t="n">
+        <v>77</v>
+      </c>
+      <c r="D435" t="n">
+        <v>77</v>
+      </c>
+      <c r="E435" t="n">
+        <v>77</v>
+      </c>
+      <c r="F435" t="n">
+        <v>572</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-619425.1836741846</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="J435" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>77</v>
+      </c>
+      <c r="C436" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D436" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="E436" t="n">
+        <v>77</v>
+      </c>
+      <c r="F436" t="n">
+        <v>7753.54</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-611671.6436741846</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K436" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C430" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D430" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E430" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="F430" t="n">
-        <v>5848.0988</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-618450.5343741846</v>
-      </c>
-      <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="J430" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>77</v>
-      </c>
-      <c r="C431" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D431" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E431" t="n">
-        <v>77</v>
-      </c>
-      <c r="F431" t="n">
-        <v>272.6493</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-618723.1836741846</v>
-      </c>
-      <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="J431" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C432" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D432" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E432" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F432" t="n">
-        <v>505</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-619228.1836741846</v>
-      </c>
-      <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="J432" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C433" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D433" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E433" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F433" t="n">
-        <v>375</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-618853.1836741846</v>
-      </c>
-      <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J433" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C434" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D434" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E434" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F434" t="n">
-        <v>400</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-618853.1836741846</v>
-      </c>
-      <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="J434" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>77</v>
-      </c>
-      <c r="C435" t="n">
-        <v>77</v>
-      </c>
-      <c r="D435" t="n">
-        <v>77</v>
-      </c>
-      <c r="E435" t="n">
-        <v>77</v>
-      </c>
-      <c r="F435" t="n">
-        <v>572</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-619425.1836741846</v>
-      </c>
-      <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="J435" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>77</v>
-      </c>
-      <c r="C436" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D436" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="E436" t="n">
-        <v>77</v>
-      </c>
-      <c r="F436" t="n">
-        <v>7753.54</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-611671.6436741846</v>
-      </c>
-      <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>77</v>
-      </c>
-      <c r="J436" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14892,13 +14836,11 @@
         <v>-611671.6436741846</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>77.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -14933,13 +14875,11 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>77.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -14974,13 +14914,11 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>77.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15015,13 +14953,11 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>77.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15056,13 +14992,11 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>77.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15101,7 +15035,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15140,7 +15074,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15179,7 +15113,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15192,6 +15126,6 @@
       <c r="M444" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest PAY.xlsx
+++ b/BackTest/2019-10-26 BackTest PAY.xlsx
@@ -715,7 +715,7 @@
         <v>-133031.8982401085</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-133031.8982401085</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-140310.2692401086</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-155411.6356401086</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-131101.7062401086</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-131101.7062401086</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-150653.6333401086</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-146065.3980401086</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-170081.2097401085</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-188114.2854401086</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-187590.5024401086</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-188505.5024401086</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-429896.1348401085</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-429896.1348401085</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-432479.3028401085</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-430117.3028401085</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-432861.8052401085</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-433912.9545401085</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-433841.8585401085</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-433856.8585401085</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-433846.0585401085</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-427301.7453401085</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-428901.7453401085</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-424006.0641401085</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-424016.0641401085</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-423616.0641401085</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-417216.0641401085</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-417216.0641401085</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-412413.0641401085</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-412413.0641401085</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-405477.0641401085</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-410539.0641401085</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-407051.2997401085</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-313430.6692741845</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-313821.6692741845</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-313425.2640741845</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-312321.2997741845</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-312321.2997741845</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-314275.2344741845</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-314255.2344741845</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-314655.2344741845</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-314645.2344741845</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-315320.2084741844</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-325804.1833741845</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-326204.1833741845</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-318108.7461741845</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-329446.6430741845</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-321073.6388741845</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-293704.3230741845</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-329582.5254741845</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-201554.7278741845</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-292088.2656741845</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-342152.8279741845</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -14278,14 +14278,10 @@
         <v>-608386.2975741845</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J421" t="n">
-        <v>75.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14315,19 +14311,11 @@
         <v>-608376.2975741845</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="J422" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14356,19 +14344,11 @@
         <v>-610704.2975741845</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>79</v>
-      </c>
-      <c r="J423" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14529,10 +14509,14 @@
         <v>-610017.0165741845</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J428" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
@@ -14562,11 +14546,19 @@
         <v>-612602.4355741845</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J429" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14598,8 +14590,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14631,8 +14629,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14661,11 +14665,19 @@
         <v>-619228.1836741846</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="J432" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14694,11 +14706,19 @@
         <v>-618853.1836741846</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="J433" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14727,11 +14747,19 @@
         <v>-618853.1836741846</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="J434" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14766,9 +14794,13 @@
         <v>77.09999999999999</v>
       </c>
       <c r="J435" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K435" t="inlineStr"/>
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14797,15 +14829,17 @@
         <v>-611671.6436741846</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>77</v>
+      </c>
       <c r="J436" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L436" t="n">
@@ -14836,11 +14870,13 @@
         <v>-611671.6436741846</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="J437" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -14875,11 +14911,13 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="J438" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -14914,11 +14952,13 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J439" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -14953,11 +14993,13 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J440" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -14992,11 +15034,13 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J441" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15031,11 +15075,13 @@
         <v>-583882.2402741846</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J442" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15070,11 +15116,13 @@
         <v>-553882.2402741846</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>79.09999999999999</v>
+      </c>
       <c r="J443" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15109,11 +15157,13 @@
         <v>-553892.2402741846</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>79.2</v>
+      </c>
       <c r="J444" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
